--- a/biology/Zoologie/Réserve_naturelle_nationale_de_Camargue/Réserve_naturelle_nationale_de_Camargue.xlsx
+++ b/biology/Zoologie/Réserve_naturelle_nationale_de_Camargue/Réserve_naturelle_nationale_de_Camargue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_naturelle_nationale_de_Camargue</t>
+          <t>Réserve_naturelle_nationale_de_Camargue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La réserve naturelle nationale de Camargue (RNN22) est une réserve naturelle nationale située en Provence-Alpes-Côte d'Azur. Créée en 1927 et classée en 1975, elle occupe une surface de 13 117,5 hectares. Gérée par la Société nationale de protection de la nature (SNPN), elle fait partie du parc naturel régional de Camargue[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réserve naturelle nationale de Camargue (RNN22) est une réserve naturelle nationale située en Provence-Alpes-Côte d'Azur. Créée en 1927 et classée en 1975, elle occupe une surface de 13 117,5 hectares. Gérée par la Société nationale de protection de la nature (SNPN), elle fait partie du parc naturel régional de Camargue.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_naturelle_nationale_de_Camargue</t>
+          <t>Réserve_naturelle_nationale_de_Camargue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le territoire de la réserve naturelle est dans le département des Bouches-du-Rhône, sur les communes de Arles et des Saintes-Maries-de-la-Mer. Elle est située à l'intérieur du delta du Rhône et englobe l'étang de Vaccarès ainsi que les étangs inférieurs jusqu'à la mer (les étangs des Impériaux n'en font plus partie depuis 1959-1960), Amphise et Salin de Badon. Sa superficie est de plus de 13 000 hectares[2], ce qui en fait une des plus étendues d'Europe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le territoire de la réserve naturelle est dans le département des Bouches-du-Rhône, sur les communes de Arles et des Saintes-Maries-de-la-Mer. Elle est située à l'intérieur du delta du Rhône et englobe l'étang de Vaccarès ainsi que les étangs inférieurs jusqu'à la mer (les étangs des Impériaux n'en font plus partie depuis 1959-1960), Amphise et Salin de Badon. Sa superficie est de plus de 13 000 hectares, ce qui en fait une des plus étendues d'Europe.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_naturelle_nationale_de_Camargue</t>
+          <t>Réserve_naturelle_nationale_de_Camargue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Histoire du site et de la réserve</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La "Réserve zoologique et botanique de Camargue"[3], créée en 1927 par la Société d'Acclimatation, renommée Société nationale de protection de la nature, et toujours gérée par celle-ci, a été classée sous le titre de "Réserve nationale de Camargue"[4], le 24 avril 1975. Gabriel Tallon en fut le directeur en 1935.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La "Réserve zoologique et botanique de Camargue", créée en 1927 par la Société d'Acclimatation, renommée Société nationale de protection de la nature, et toujours gérée par celle-ci, a été classée sous le titre de "Réserve nationale de Camargue", le 24 avril 1975. Gabriel Tallon en fut le directeur en 1935.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_naturelle_nationale_de_Camargue</t>
+          <t>Réserve_naturelle_nationale_de_Camargue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,17 +589,11 @@
           <t>Écologie (biodiversité, intérêt écopaysager…)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les habitats prioritaires représentent 69 % de la réserve et sont constitués en grande majorité par des lagunes[5]. 94 % de sa surface sont constitués d’habitats salés inondés ou inondables.
-Flore
-Parmi les végétaux remarquables figurent les genévriers multi-centenaires qui colonisent le cordon dunaire, et l’espèce protégée Limonium girardianum.
-Faune
-Environ 1760 espèces d’insectes et 189 d’araignées ont été identifiées dans la réserve[5]. 39 espèces de poissons ont été inventoriées au cours de la dernière décennie, dont l'Anguille, le Poisson-chat et l'Ablette. La variation des populations d'anguilles est liée à la gestion des connexions avec la mer (comme pour toutes les espèces marines) qui est essentielle pour la diversité du peuplement dans son ensemble.
-Parmi les amphibiens, le Triton palmé semble avoir disparu depuis 1996[5].
-Onze espèces de reptiles ont été identifiés dans la réserve durant la dernière décennie.
-24 espèces de mammifères - sur 43 espèces inventoriées dans l'ensemble de la Camargue- sont présentes de façon avérée, dont la Taupe, le Hérisson d'Europe, la Pipistrelle, le Renard roux, la Fouine, la Belette, le Ragondin et des campagnols. Le Lapin de garenne qui était surabondant dans le delta a quasiment disparu, sans doute à cause de l'arrivée de la maladie hémorragique virale du lapin.
-Mais ce qui fait la réputation de la réserve ce sont les 277 espèces d'oiseaux recensés, dont 89 sont inscrites à l'annexe I de la "directive oiseaux", dont 17 ont un statut préoccupant[5]. On constate chaque hiver une baisse sensible des effectifs des oiseaux sur la réserve. Les plus célèbres sont les flamants roses dont les effectifs atteignent un maximum de 34 000 individus en fin d'été.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les habitats prioritaires représentent 69 % de la réserve et sont constitués en grande majorité par des lagunes. 94 % de sa surface sont constitués d’habitats salés inondés ou inondables.
 </t>
         </is>
       </c>
@@ -594,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_naturelle_nationale_de_Camargue</t>
+          <t>Réserve_naturelle_nationale_de_Camargue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +619,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Intérêt touristique et pédagogique</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Écologie (biodiversité, intérêt écopaysager…)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les végétaux remarquables figurent les genévriers multi-centenaires qui colonisent le cordon dunaire, et l’espèce protégée Limonium girardianum.
+</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_naturelle_nationale_de_Camargue</t>
+          <t>Réserve_naturelle_nationale_de_Camargue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,16 +656,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie (biodiversité, intérêt écopaysager…)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Environ 1760 espèces d’insectes et 189 d’araignées ont été identifiées dans la réserve. 39 espèces de poissons ont été inventoriées au cours de la dernière décennie, dont l'Anguille, le Poisson-chat et l'Ablette. La variation des populations d'anguilles est liée à la gestion des connexions avec la mer (comme pour toutes les espèces marines) qui est essentielle pour la diversité du peuplement dans son ensemble.
+Parmi les amphibiens, le Triton palmé semble avoir disparu depuis 1996.
+Onze espèces de reptiles ont été identifiés dans la réserve durant la dernière décennie.
+24 espèces de mammifères - sur 43 espèces inventoriées dans l'ensemble de la Camargue- sont présentes de façon avérée, dont la Taupe, le Hérisson d'Europe, la Pipistrelle, le Renard roux, la Fouine, la Belette, le Ragondin et des campagnols. Le Lapin de garenne qui était surabondant dans le delta a quasiment disparu, sans doute à cause de l'arrivée de la maladie hémorragique virale du lapin.
+Mais ce qui fait la réputation de la réserve ce sont les 277 espèces d'oiseaux recensés, dont 89 sont inscrites à l'annexe I de la "directive oiseaux", dont 17 ont un statut préoccupant. On constate chaque hiver une baisse sensible des effectifs des oiseaux sur la réserve. Les plus célèbres sont les flamants roses dont les effectifs atteignent un maximum de 34 000 individus en fin d'été.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Réserve_naturelle_nationale_de_Camargue</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9serve_naturelle_nationale_de_Camargue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Intérêt touristique et pédagogique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Réserve_naturelle_nationale_de_Camargue</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9serve_naturelle_nationale_de_Camargue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Administration, plan de gestion, règlement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La réserve naturelle est gérée par la Société nationale de protection de la nature (SNPN). Le plan de gestion en cours couvre la période 2011-2015.
-Outils et statut juridique
-La réserve naturelle a été créée par un arrêté ministériel du 24 avril 1975[4].
-Site Ramsar
-Le 1er décembre 1986, la Camargue est reconnue site Ramsar[6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Réserve_naturelle_nationale_de_Camargue</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9serve_naturelle_nationale_de_Camargue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Administration, plan de gestion, règlement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Outils et statut juridique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réserve naturelle a été créée par un arrêté ministériel du 24 avril 1975.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Réserve_naturelle_nationale_de_Camargue</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9serve_naturelle_nationale_de_Camargue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Administration, plan de gestion, règlement</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Site Ramsar</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er décembre 1986, la Camargue est reconnue site Ramsar.
 </t>
         </is>
       </c>
